--- a/ods/25-KW45 Time-Sheet.xlsx
+++ b/ods/25-KW45 Time-Sheet.xlsx
@@ -3154,11 +3154,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>03.11.2025</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3202,11 +3198,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>03.11.2025</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3250,11 +3242,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>04.11.2025</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3298,11 +3286,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>04.11.2025</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3346,11 +3330,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>04.11.2025</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3394,11 +3374,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>04.11.2025</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3442,11 +3418,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>04.11.2025</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3490,11 +3462,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>05.11.2025</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3538,11 +3506,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>05.11.2025</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3586,11 +3550,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>05.11.2025</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3634,11 +3594,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>05.11.2025</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3682,11 +3638,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>06.11.2025</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3730,11 +3682,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>06.11.2025</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3778,11 +3726,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>06.11.2025</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3826,11 +3770,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>06.11.2025</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
           <t>08:00</t>
